--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -709,7 +709,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -798,8 +798,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) Clinically relevant time/time-period for observation</t>
@@ -894,7 +894,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-venous-invasion-categories|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-venous-invasion-categories|0.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-venous-invasion-category.xlsx
+++ b/StructureDefinition-onconova-venous-invasion-category.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Venous Invasion Category</t>
+    <t>TNM Venous Invasion Category</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
